--- a/data/trans_bre/P19C03-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C03-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,22%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,56; 5,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 8,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,01; 6,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,38; 3,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,05; 30,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,99; 45,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,75; 38,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,38; 25,72</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,81%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 5,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,54; 2,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,31; 2,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,01; 0,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,01; 15,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,63; 6,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,7; 7,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,02; 4,07</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,86%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,24%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,56; 6,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,1; 0,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,46; 1,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,11; 5,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,12; 22,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,92; 2,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,14; 7,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,89; 38,22</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,35%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 2,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,31; 1,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,87; 0,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,72; 0,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,27; 9,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,72; 4,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,33; 3,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,83; 4,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C03-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 3,04</t>
+          <t>-4,44; 3,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 25,72</t>
+          <t>-25,36; 26,36</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-10,81%</t>
+          <t>-4,35%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 0,82</t>
+          <t>-6,41; 6,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,02; 4,07</t>
+          <t>-29,71; 38,59</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>9,12%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 5,43</t>
+          <t>-3,37; 5,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 38,22</t>
+          <t>-17,9; 37,68</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,35%</t>
+          <t>-2,88%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,79</t>
+          <t>-4,13; 3,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 4,49</t>
+          <t>-20,87; 24,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C03-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 5,61</t>
+          <t>-3,09; 5,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 8,11</t>
+          <t>0,48; 8,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 6,92</t>
+          <t>-2,8; 7,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 3,22</t>
+          <t>-4,22; 3,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 30,58</t>
+          <t>-12,61; 29,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,99; 45,38</t>
+          <t>2,64; 48,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 38,09</t>
+          <t>-12,94; 43,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,36; 26,36</t>
+          <t>-24,52; 27,0</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 5,45</t>
+          <t>-2,42; 5,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 2,23</t>
+          <t>-4,64; 2,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 2,02</t>
+          <t>-4,29; 1,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 6,08</t>
+          <t>-6,53; 6,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 15,12</t>
+          <t>-6,19; 14,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 6,76</t>
+          <t>-12,79; 6,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 7,07</t>
+          <t>-13,47; 6,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,71; 38,59</t>
+          <t>-31,47; 44,69</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 6,35</t>
+          <t>-6,44; 6,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 0,65</t>
+          <t>-12,5; 0,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 1,73</t>
+          <t>-8,62; 1,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 5,4</t>
+          <t>-2,97; 5,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,12; 22,81</t>
+          <t>-19,01; 23,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,92; 2,24</t>
+          <t>-35,62; 3,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,14; 7,85</t>
+          <t>-31,45; 8,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 37,68</t>
+          <t>-15,12; 38,1</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,75</t>
+          <t>-2,45; 2,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 1,39</t>
+          <t>-3,69; 1,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,85</t>
+          <t>-3,7; 1,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 3,75</t>
+          <t>-4,22; 3,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 9,11</t>
+          <t>-7,47; 9,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 4,69</t>
+          <t>-11,77; 3,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 3,38</t>
+          <t>-12,71; 4,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,87; 24,38</t>
+          <t>-21,37; 23,18</t>
         </is>
       </c>
     </row>
